--- a/breeding_patterns - win, sum/litters (delivery times)/Seasonal_Births_ PO _ 5 yr.xlsx
+++ b/breeding_patterns - win, sum/litters (delivery times)/Seasonal_Births_ PO _ 5 yr.xlsx
@@ -20,40 +20,40 @@
     <t xml:space="preserve">BirthSeason</t>
   </si>
   <si>
-    <t xml:space="preserve">1964-1968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1969-1973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1974-1978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1979-1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1984-1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1989-1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1994-1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-2023</t>
+    <t xml:space="preserve">1963-1967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1968-1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1973-1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1978-1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1983-1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1988-1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993-1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-2022</t>
   </si>
   <si>
     <t xml:space="preserve">Summer</t>
@@ -440,37 +440,37 @@
         <v>52</v>
       </c>
       <c r="C2" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="F2" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="H2" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I2" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J2" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K2" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L2" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -481,37 +481,37 @@
         <v>55</v>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F3" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H3" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I3" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J3" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K3" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L3" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M3" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -574,40 +574,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C2" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="G2" t="n">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="H2" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I2" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="K2" t="n">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="L2" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M2" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -615,40 +615,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
+        <v>38</v>
+      </c>
+      <c r="E3" t="n">
         <v>46</v>
       </c>
-      <c r="E3" t="n">
-        <v>37</v>
-      </c>
       <c r="F3" t="n">
+        <v>87</v>
+      </c>
+      <c r="G3" t="n">
+        <v>88</v>
+      </c>
+      <c r="H3" t="n">
+        <v>78</v>
+      </c>
+      <c r="I3" t="n">
+        <v>28</v>
+      </c>
+      <c r="J3" t="n">
         <v>82</v>
       </c>
-      <c r="G3" t="n">
-        <v>102</v>
-      </c>
-      <c r="H3" t="n">
-        <v>74</v>
-      </c>
-      <c r="I3" t="n">
-        <v>48</v>
-      </c>
-      <c r="J3" t="n">
-        <v>92</v>
-      </c>
       <c r="K3" t="n">
+        <v>137</v>
+      </c>
+      <c r="L3" t="n">
+        <v>33</v>
+      </c>
+      <c r="M3" t="n">
         <v>96</v>
-      </c>
-      <c r="L3" t="n">
-        <v>46</v>
-      </c>
-      <c r="M3" t="n">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -711,40 +711,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I2" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L2" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="M2" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -752,40 +752,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
+        <v>44</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G3" t="n">
         <v>26</v>
       </c>
-      <c r="E3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" t="n">
-        <v>45</v>
-      </c>
-      <c r="G3" t="n">
-        <v>29</v>
-      </c>
       <c r="H3" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
         <v>24</v>
       </c>
       <c r="K3" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L3" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -848,40 +848,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>99</v>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
         <v>64</v>
       </c>
       <c r="K2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -898,31 +898,31 @@
         <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J3" t="n">
         <v>47</v>
       </c>
       <c r="K3" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M3" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
